--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId4"/>
@@ -1048,7 +1048,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="177" formatCode="0%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1178,6 +1178,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1188,7 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599839985370636"/>
+        <fgColor theme="9" tint="0.599810004234314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,7 +1248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599839985370636"/>
+        <fgColor theme="5" tint="0.599810004234314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,7 +1260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599839985370636"/>
+        <fgColor theme="6" tint="0.599810004234314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,9 +1752,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Commodity"/>
     <tableColumn id="2" name="Process"/>
-    <tableColumn id="3" name="Reduction for building type">
-      <calculatedColumnFormula>+SUMIF($S$7:$S$11,LEFT(R15,5)&amp;"*",$T$7:$T$11)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="3" name="Reduction for building type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8742,7 +8746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EEFD70-8C3B-4A33-8837-D811323F48D5}">
   <dimension ref="A3:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -9506,7 +9510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AQ90"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0" topLeftCell="A1">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0" topLeftCell="A27">
       <selection pane="topLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -13208,8 +13212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
   <dimension ref="D4:W254"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="B4">
-      <selection pane="topLeft" activeCell="T138" sqref="T138"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="B120">
+      <selection pane="topLeft" activeCell="Q136" sqref="Q136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13539,8 +13543,7 @@
         <v>209</v>
       </c>
       <c r="T15">
-        <f t="shared" si="1" ref="T15:T46">+SUMIF($S$7:$S$11,LEFT(R15,5)&amp;"*",$T$7:$T$11)*SUMIF($W$15:$W$22,LEFT(_xlfn.TEXTAFTER(RIGHT(S15,3),"_"),1),$V$15:$V$22)</f>
-        <v>0</v>
+        <v>0.20</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -13577,8 +13580,7 @@
         <v>209</v>
       </c>
       <c r="T16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
       <c r="V16">
         <v>1</v>
@@ -13615,8 +13617,7 @@
         <v>209</v>
       </c>
       <c r="T17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -13653,8 +13654,7 @@
         <v>209</v>
       </c>
       <c r="T18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -13691,8 +13691,7 @@
         <v>213</v>
       </c>
       <c r="T19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -13729,8 +13728,7 @@
         <v>213</v>
       </c>
       <c r="T20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -13767,8 +13765,7 @@
         <v>213</v>
       </c>
       <c r="T21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -13805,8 +13802,7 @@
         <v>213</v>
       </c>
       <c r="T22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -13843,8 +13839,7 @@
         <v>214</v>
       </c>
       <c r="T23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="24" spans="6:20" ht="15">
@@ -13875,8 +13870,7 @@
         <v>214</v>
       </c>
       <c r="T24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="25" spans="6:20" ht="15">
@@ -13907,8 +13901,7 @@
         <v>214</v>
       </c>
       <c r="T25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="26" spans="6:20" ht="15">
@@ -13939,8 +13932,7 @@
         <v>214</v>
       </c>
       <c r="T26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="27" spans="6:20" ht="15">
@@ -13971,8 +13963,7 @@
         <v>215</v>
       </c>
       <c r="T27">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="28" spans="6:20" ht="15">
@@ -14003,8 +13994,7 @@
         <v>215</v>
       </c>
       <c r="T28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="29" spans="6:20" ht="15">
@@ -14035,8 +14025,7 @@
         <v>215</v>
       </c>
       <c r="T29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="30" spans="6:20" ht="15">
@@ -14067,8 +14056,7 @@
         <v>215</v>
       </c>
       <c r="T30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="31" spans="6:20" ht="15">
@@ -14099,8 +14087,7 @@
         <v>216</v>
       </c>
       <c r="T31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="32" spans="6:20" ht="15">
@@ -14131,8 +14118,7 @@
         <v>216</v>
       </c>
       <c r="T32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="33" spans="6:20" ht="15">
@@ -14163,8 +14149,7 @@
         <v>216</v>
       </c>
       <c r="T33">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="34" spans="6:20" ht="15">
@@ -14195,8 +14180,7 @@
         <v>216</v>
       </c>
       <c r="T34">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="35" spans="6:20" ht="15">
@@ -14227,8 +14211,7 @@
         <v>218</v>
       </c>
       <c r="T35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="36" spans="6:20" ht="15">
@@ -14259,8 +14242,7 @@
         <v>218</v>
       </c>
       <c r="T36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="37" spans="6:20" ht="15">
@@ -14291,8 +14273,7 @@
         <v>218</v>
       </c>
       <c r="T37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="38" spans="6:20" ht="15">
@@ -14323,8 +14304,7 @@
         <v>218</v>
       </c>
       <c r="T38">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="39" spans="6:20" ht="15">
@@ -14355,8 +14335,7 @@
         <v>220</v>
       </c>
       <c r="T39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="40" spans="6:20" ht="15">
@@ -14387,8 +14366,7 @@
         <v>220</v>
       </c>
       <c r="T40">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="41" spans="6:20" ht="15">
@@ -14419,8 +14397,7 @@
         <v>220</v>
       </c>
       <c r="T41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="42" spans="6:20" ht="15">
@@ -14451,8 +14428,7 @@
         <v>220</v>
       </c>
       <c r="T42">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="43" spans="6:20" ht="15">
@@ -14483,8 +14459,7 @@
         <v>222</v>
       </c>
       <c r="T43">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="44" spans="6:20" ht="15">
@@ -14515,8 +14490,7 @@
         <v>222</v>
       </c>
       <c r="T44">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="45" spans="6:20" ht="15">
@@ -14547,8 +14521,7 @@
         <v>222</v>
       </c>
       <c r="T45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="46" spans="6:20" ht="15">
@@ -14579,8 +14552,7 @@
         <v>222</v>
       </c>
       <c r="T46">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="47" spans="6:20" ht="15">
@@ -14611,8 +14583,7 @@
         <v>224</v>
       </c>
       <c r="T47">
-        <f t="shared" si="2" ref="T47:T78">+SUMIF($S$7:$S$11,LEFT(R47,5)&amp;"*",$T$7:$T$11)*SUMIF($W$15:$W$22,LEFT(_xlfn.TEXTAFTER(RIGHT(S47,3),"_"),1),$V$15:$V$22)</f>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="48" spans="6:20" ht="15">
@@ -14643,8 +14614,7 @@
         <v>224</v>
       </c>
       <c r="T48">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="49" spans="6:20" ht="15">
@@ -14675,8 +14645,7 @@
         <v>224</v>
       </c>
       <c r="T49">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="50" spans="6:20" ht="15">
@@ -14707,8 +14676,7 @@
         <v>224</v>
       </c>
       <c r="T50">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="51" spans="6:20" ht="15">
@@ -14739,8 +14707,7 @@
         <v>226</v>
       </c>
       <c r="T51">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="52" spans="6:20" ht="15">
@@ -14771,8 +14738,7 @@
         <v>226</v>
       </c>
       <c r="T52">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="53" spans="6:20" ht="15">
@@ -14803,8 +14769,7 @@
         <v>226</v>
       </c>
       <c r="T53">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="54" spans="6:20" ht="15">
@@ -14835,8 +14800,7 @@
         <v>226</v>
       </c>
       <c r="T54">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="55" spans="6:20" ht="15">
@@ -14867,8 +14831,7 @@
         <v>228</v>
       </c>
       <c r="T55">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="56" spans="6:20" ht="15">
@@ -14899,8 +14862,7 @@
         <v>228</v>
       </c>
       <c r="T56">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="57" spans="6:20" ht="15">
@@ -14931,8 +14893,7 @@
         <v>228</v>
       </c>
       <c r="T57">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="58" spans="6:20" ht="15">
@@ -14963,8 +14924,7 @@
         <v>228</v>
       </c>
       <c r="T58">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="59" spans="6:20" ht="15">
@@ -14995,8 +14955,7 @@
         <v>229</v>
       </c>
       <c r="T59">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="60" spans="6:20" ht="15">
@@ -15027,8 +14986,7 @@
         <v>229</v>
       </c>
       <c r="T60">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="61" spans="6:20" ht="15">
@@ -15059,8 +15017,7 @@
         <v>229</v>
       </c>
       <c r="T61">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="62" spans="6:20" ht="15">
@@ -15091,8 +15048,7 @@
         <v>229</v>
       </c>
       <c r="T62">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="63" spans="6:20" ht="15">
@@ -15123,8 +15079,7 @@
         <v>230</v>
       </c>
       <c r="T63">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="64" spans="6:20" ht="15">
@@ -15155,8 +15110,7 @@
         <v>230</v>
       </c>
       <c r="T64">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="65" spans="6:20" ht="15">
@@ -15187,8 +15141,7 @@
         <v>230</v>
       </c>
       <c r="T65">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="66" spans="6:20" ht="15">
@@ -15219,8 +15172,7 @@
         <v>230</v>
       </c>
       <c r="T66">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="67" spans="6:20" ht="15">
@@ -15251,8 +15203,7 @@
         <v>231</v>
       </c>
       <c r="T67">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="68" spans="6:20" ht="15">
@@ -15283,8 +15234,7 @@
         <v>231</v>
       </c>
       <c r="T68">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="69" spans="6:20" ht="15">
@@ -15315,8 +15265,7 @@
         <v>231</v>
       </c>
       <c r="T69">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="70" spans="6:20" ht="15">
@@ -15347,8 +15296,7 @@
         <v>231</v>
       </c>
       <c r="T70">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="71" spans="6:20" ht="15">
@@ -15379,8 +15327,7 @@
         <v>233</v>
       </c>
       <c r="T71">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="72" spans="6:20" ht="15">
@@ -15395,7 +15342,7 @@
         <v>0.00033086537242422499</v>
       </c>
       <c r="I72" s="42">
-        <f t="shared" si="3" ref="I72:I135">+H72</f>
+        <f t="shared" si="1" ref="I72:I135">+H72</f>
         <v>0.00033086537242422499</v>
       </c>
       <c r="J72" t="s">
@@ -15411,8 +15358,7 @@
         <v>233</v>
       </c>
       <c r="T72">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="73" spans="6:20" ht="15">
@@ -15427,7 +15373,7 @@
         <v>0.050493263338740102</v>
       </c>
       <c r="I73" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.050493263338740102</v>
       </c>
       <c r="J73" t="s">
@@ -15443,8 +15389,7 @@
         <v>233</v>
       </c>
       <c r="T73">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="74" spans="6:20" ht="15">
@@ -15459,7 +15404,7 @@
         <v>0.0114874610881934</v>
       </c>
       <c r="I74" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0114874610881934</v>
       </c>
       <c r="J74" t="s">
@@ -15475,8 +15420,7 @@
         <v>233</v>
       </c>
       <c r="T74">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="75" spans="6:20" ht="15">
@@ -15491,7 +15435,7 @@
         <v>0.00087038647541608097</v>
       </c>
       <c r="I75" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00087038647541608097</v>
       </c>
       <c r="J75" t="s">
@@ -15507,8 +15451,7 @@
         <v>235</v>
       </c>
       <c r="T75">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="76" spans="6:20" ht="15">
@@ -15523,7 +15466,7 @@
         <v>0.00023534708508606299</v>
       </c>
       <c r="I76" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00023534708508606299</v>
       </c>
       <c r="J76" t="s">
@@ -15539,8 +15482,7 @@
         <v>235</v>
       </c>
       <c r="T76">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="77" spans="6:20" ht="15">
@@ -15555,7 +15497,7 @@
         <v>0.052195880415110002</v>
       </c>
       <c r="I77" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.052195880415110002</v>
       </c>
       <c r="J77" t="s">
@@ -15571,8 +15513,7 @@
         <v>235</v>
       </c>
       <c r="T77">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="78" spans="6:20" ht="15">
@@ -15587,7 +15528,7 @@
         <v>0.0104359658232331</v>
       </c>
       <c r="I78" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0104359658232331</v>
       </c>
       <c r="J78" t="s">
@@ -15603,8 +15544,7 @@
         <v>235</v>
       </c>
       <c r="T78">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="79" spans="6:20" ht="15">
@@ -15619,7 +15559,7 @@
         <v>0.00084666683429302902</v>
       </c>
       <c r="I79" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00084666683429302902</v>
       </c>
       <c r="J79" t="s">
@@ -15635,8 +15575,7 @@
         <v>237</v>
       </c>
       <c r="T79">
-        <f t="shared" si="4" ref="T79:T110">+SUMIF($S$7:$S$11,LEFT(R79,5)&amp;"*",$T$7:$T$11)*SUMIF($W$15:$W$22,LEFT(_xlfn.TEXTAFTER(RIGHT(S79,3),"_"),1),$V$15:$V$22)</f>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="80" spans="6:20" ht="15">
@@ -15651,7 +15590,7 @@
         <v>0.00066867996369597798</v>
       </c>
       <c r="I80" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00066867996369597798</v>
       </c>
       <c r="J80" t="s">
@@ -15667,8 +15606,7 @@
         <v>237</v>
       </c>
       <c r="T80">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="81" spans="6:20" ht="15">
@@ -15683,7 +15621,7 @@
         <v>0.0024058665241777598</v>
       </c>
       <c r="I81" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0024058665241777598</v>
       </c>
       <c r="J81" t="s">
@@ -15699,8 +15637,7 @@
         <v>237</v>
       </c>
       <c r="T81">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="82" spans="6:20" ht="15">
@@ -15715,7 +15652,7 @@
         <v>0.00426054151520409</v>
       </c>
       <c r="I82" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00426054151520409</v>
       </c>
       <c r="J82" t="s">
@@ -15731,8 +15668,7 @@
         <v>237</v>
       </c>
       <c r="T82">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="83" spans="6:20" ht="15">
@@ -15747,7 +15683,7 @@
         <v>0.0017683153930356801</v>
       </c>
       <c r="I83" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0017683153930356801</v>
       </c>
       <c r="J83" t="s">
@@ -15763,8 +15699,7 @@
         <v>239</v>
       </c>
       <c r="T83">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="84" spans="6:20" ht="15">
@@ -15779,7 +15714,7 @@
         <v>0.000750537163695459</v>
       </c>
       <c r="I84" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.000750537163695459</v>
       </c>
       <c r="J84" t="s">
@@ -15795,8 +15730,7 @@
         <v>239</v>
       </c>
       <c r="T84">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="85" spans="6:20" ht="15">
@@ -15811,7 +15745,7 @@
         <v>0.020717034161966401</v>
       </c>
       <c r="I85" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.020717034161966401</v>
       </c>
       <c r="J85" t="s">
@@ -15827,8 +15761,7 @@
         <v>239</v>
       </c>
       <c r="T85">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="86" spans="6:20" ht="15">
@@ -15843,7 +15776,7 @@
         <v>0.0088922350864476096</v>
       </c>
       <c r="I86" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0088922350864476096</v>
       </c>
       <c r="J86" t="s">
@@ -15859,8 +15792,7 @@
         <v>239</v>
       </c>
       <c r="T86">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="87" spans="6:20" ht="15">
@@ -15875,7 +15807,7 @@
         <v>0.0020047682124008999</v>
       </c>
       <c r="I87" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0020047682124008999</v>
       </c>
       <c r="J87" t="s">
@@ -15891,8 +15823,7 @@
         <v>241</v>
       </c>
       <c r="T87">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="88" spans="6:20" ht="15">
@@ -15907,7 +15838,7 @@
         <v>0.00059115484277808797</v>
       </c>
       <c r="I88" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00059115484277808797</v>
       </c>
       <c r="J88" t="s">
@@ -15923,8 +15854,7 @@
         <v>241</v>
       </c>
       <c r="T88">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="89" spans="6:20" ht="15">
@@ -15939,7 +15869,7 @@
         <v>0.033083652738783199</v>
       </c>
       <c r="I89" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.033083652738783199</v>
       </c>
       <c r="J89" t="s">
@@ -15955,8 +15885,7 @@
         <v>241</v>
       </c>
       <c r="T89">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="90" spans="6:20" ht="15">
@@ -15971,7 +15900,7 @@
         <v>0.0117236462517728</v>
       </c>
       <c r="I90" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0117236462517728</v>
       </c>
       <c r="J90" t="s">
@@ -15987,8 +15916,7 @@
         <v>241</v>
       </c>
       <c r="T90">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="91" spans="6:20" ht="15">
@@ -16003,7 +15931,7 @@
         <v>0.00196179164560536</v>
       </c>
       <c r="I91" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00196179164560536</v>
       </c>
       <c r="J91" t="s">
@@ -16019,8 +15947,7 @@
         <v>243</v>
       </c>
       <c r="T91">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="92" spans="6:20" ht="15">
@@ -16035,7 +15962,7 @@
         <v>0.00051352659953481301</v>
       </c>
       <c r="I92" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00051352659953481301</v>
       </c>
       <c r="J92" t="s">
@@ -16051,8 +15978,7 @@
         <v>243</v>
       </c>
       <c r="T92">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="93" spans="6:20" ht="15">
@@ -16067,7 +15993,7 @@
         <v>0.038234291164306301</v>
       </c>
       <c r="I93" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.038234291164306301</v>
       </c>
       <c r="J93" t="s">
@@ -16083,8 +16009,7 @@
         <v>243</v>
       </c>
       <c r="T93">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="94" spans="6:20" ht="15">
@@ -16099,7 +16024,7 @@
         <v>0.013255956176612699</v>
       </c>
       <c r="I94" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.013255956176612699</v>
       </c>
       <c r="J94" t="s">
@@ -16115,8 +16040,7 @@
         <v>243</v>
       </c>
       <c r="T94">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="95" spans="6:20" ht="15">
@@ -16131,7 +16055,7 @@
         <v>0.0017035279711745399</v>
       </c>
       <c r="I95" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0017035279711745399</v>
       </c>
       <c r="J95" t="s">
@@ -16147,8 +16071,7 @@
         <v>244</v>
       </c>
       <c r="T95">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="96" spans="6:20" ht="15">
@@ -16163,7 +16086,7 @@
         <v>0.00047564031426238499</v>
       </c>
       <c r="I96" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00047564031426238499</v>
       </c>
       <c r="J96" t="s">
@@ -16179,8 +16102,7 @@
         <v>244</v>
       </c>
       <c r="T96">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="97" spans="6:20" ht="15">
@@ -16195,7 +16117,7 @@
         <v>0.043300799885821702</v>
       </c>
       <c r="I97" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.043300799885821702</v>
       </c>
       <c r="J97" t="s">
@@ -16211,8 +16133,7 @@
         <v>244</v>
       </c>
       <c r="T97">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="98" spans="6:20" ht="15">
@@ -16227,7 +16148,7 @@
         <v>0.014139525083172099</v>
       </c>
       <c r="I98" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.014139525083172099</v>
       </c>
       <c r="J98" t="s">
@@ -16243,8 +16164,7 @@
         <v>244</v>
       </c>
       <c r="T98">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="99" spans="6:20" ht="15">
@@ -16259,7 +16179,7 @@
         <v>0.00139319820124895</v>
       </c>
       <c r="I99" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00139319820124895</v>
       </c>
       <c r="J99" t="s">
@@ -16275,8 +16195,7 @@
         <v>245</v>
       </c>
       <c r="T99">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="100" spans="6:20" ht="15">
@@ -16291,7 +16210,7 @@
         <v>0.00046204216750972199</v>
       </c>
       <c r="I100" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00046204216750972199</v>
       </c>
       <c r="J100" t="s">
@@ -16307,8 +16226,7 @@
         <v>245</v>
       </c>
       <c r="T100">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="101" spans="6:20" ht="15">
@@ -16323,7 +16241,7 @@
         <v>0.0489015983401654</v>
       </c>
       <c r="I101" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0489015983401654</v>
       </c>
       <c r="J101" t="s">
@@ -16339,8 +16257,7 @@
         <v>245</v>
       </c>
       <c r="T101">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="102" spans="6:20" ht="15">
@@ -16355,7 +16272,7 @@
         <v>0.0143038292745449</v>
       </c>
       <c r="I102" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0143038292745449</v>
       </c>
       <c r="J102" t="s">
@@ -16371,8 +16288,7 @@
         <v>245</v>
       </c>
       <c r="T102">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="103" spans="6:20" ht="15">
@@ -16387,7 +16303,7 @@
         <v>0.0012866536750593201</v>
       </c>
       <c r="I103" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0012866536750593201</v>
       </c>
       <c r="J103" t="s">
@@ -16403,8 +16319,7 @@
         <v>246</v>
       </c>
       <c r="T103">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="104" spans="6:20" ht="15">
@@ -16419,7 +16334,7 @@
         <v>0.00043173964300815897</v>
       </c>
       <c r="I104" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00043173964300815897</v>
       </c>
       <c r="J104" t="s">
@@ -16435,8 +16350,7 @@
         <v>246</v>
       </c>
       <c r="T104">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="105" spans="6:20" ht="15">
@@ -16451,7 +16365,7 @@
         <v>0.060316400230437502</v>
       </c>
       <c r="I105" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.060316400230437502</v>
       </c>
       <c r="J105" t="s">
@@ -16467,8 +16381,7 @@
         <v>246</v>
       </c>
       <c r="T105">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="106" spans="6:20" ht="15">
@@ -16483,7 +16396,7 @@
         <v>0.0143517332094984</v>
       </c>
       <c r="I106" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0143517332094984</v>
       </c>
       <c r="J106" t="s">
@@ -16499,8 +16412,7 @@
         <v>246</v>
       </c>
       <c r="T106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="107" spans="6:20" ht="15">
@@ -16515,7 +16427,7 @@
         <v>0.0012249928868643301</v>
       </c>
       <c r="I107" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0012249928868643301</v>
       </c>
       <c r="J107" t="s">
@@ -16531,8 +16443,7 @@
         <v>248</v>
       </c>
       <c r="T107">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="108" spans="6:20" ht="15">
@@ -16547,7 +16458,7 @@
         <v>0.00041119730191954202</v>
       </c>
       <c r="I108" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00041119730191954202</v>
       </c>
       <c r="J108" t="s">
@@ -16563,8 +16474,7 @@
         <v>248</v>
       </c>
       <c r="T108">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="109" spans="6:20" ht="15">
@@ -16579,7 +16489,7 @@
         <v>0.072534210143308797</v>
       </c>
       <c r="I109" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.072534210143308797</v>
       </c>
       <c r="J109" t="s">
@@ -16595,8 +16505,7 @@
         <v>248</v>
       </c>
       <c r="T109">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="110" spans="6:20" ht="15">
@@ -16611,7 +16520,7 @@
         <v>0.0144314490951484</v>
       </c>
       <c r="I110" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0144314490951484</v>
       </c>
       <c r="J110" t="s">
@@ -16627,8 +16536,7 @@
         <v>248</v>
       </c>
       <c r="T110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="111" spans="6:20" ht="15">
@@ -16643,7 +16551,7 @@
         <v>0.00108148631148779</v>
       </c>
       <c r="I111" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00108148631148779</v>
       </c>
       <c r="J111" t="s">
@@ -16659,8 +16567,7 @@
         <v>250</v>
       </c>
       <c r="T111">
-        <f t="shared" si="5" ref="T111:T122">+SUMIF($S$7:$S$11,LEFT(R111,5)&amp;"*",$T$7:$T$11)*SUMIF($W$15:$W$22,LEFT(_xlfn.TEXTAFTER(RIGHT(S111,3),"_"),1),$V$15:$V$22)</f>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="112" spans="6:20" ht="15">
@@ -16675,7 +16582,7 @@
         <v>0.00030143313414422002</v>
       </c>
       <c r="I112" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00030143313414422002</v>
       </c>
       <c r="J112" t="s">
@@ -16691,8 +16598,7 @@
         <v>250</v>
       </c>
       <c r="T112">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="113" spans="6:20" ht="15">
@@ -16707,7 +16613,7 @@
         <v>0.095721007741370198</v>
       </c>
       <c r="I113" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.095721007741370198</v>
       </c>
       <c r="J113" t="s">
@@ -16723,8 +16629,7 @@
         <v>250</v>
       </c>
       <c r="T113">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="114" spans="6:20" ht="15">
@@ -16739,7 +16644,7 @@
         <v>0.013140678240923199</v>
       </c>
       <c r="I114" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.013140678240923199</v>
       </c>
       <c r="J114" t="s">
@@ -16755,8 +16660,7 @@
         <v>250</v>
       </c>
       <c r="T114">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="115" spans="6:20" ht="15">
@@ -16771,7 +16675,7 @@
         <v>0.00032505870170077201</v>
       </c>
       <c r="I115" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00032505870170077201</v>
       </c>
       <c r="J115" t="s">
@@ -16787,8 +16691,7 @@
         <v>252</v>
       </c>
       <c r="T115">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="116" spans="6:20" ht="15">
@@ -16803,7 +16706,7 @@
         <v>0.00024641622412260601</v>
       </c>
       <c r="I116" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00024641622412260601</v>
       </c>
       <c r="J116" t="s">
@@ -16819,8 +16722,7 @@
         <v>252</v>
       </c>
       <c r="T116">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="117" spans="6:20" ht="15">
@@ -16835,7 +16737,7 @@
         <v>0.00019344980866313499</v>
       </c>
       <c r="I117" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00019344980866313499</v>
       </c>
       <c r="J117" t="s">
@@ -16851,8 +16753,7 @@
         <v>252</v>
       </c>
       <c r="T117">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="118" spans="6:20" ht="15">
@@ -16867,7 +16768,7 @@
         <v>0.000132490135783855</v>
       </c>
       <c r="I118" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.000132490135783855</v>
       </c>
       <c r="J118" t="s">
@@ -16883,8 +16784,7 @@
         <v>252</v>
       </c>
       <c r="T118">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="119" spans="6:20" ht="15">
@@ -16899,7 +16799,7 @@
         <v>0.0026993348022525299</v>
       </c>
       <c r="I119" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0026993348022525299</v>
       </c>
       <c r="J119" t="s">
@@ -16915,8 +16815,7 @@
         <v>254</v>
       </c>
       <c r="T119">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="120" spans="6:20" ht="15">
@@ -16931,7 +16830,7 @@
         <v>0.00030596592500527599</v>
       </c>
       <c r="I120" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00030596592500527599</v>
       </c>
       <c r="J120" t="s">
@@ -16947,8 +16846,7 @@
         <v>254</v>
       </c>
       <c r="T120">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="121" spans="6:20" ht="15">
@@ -16963,7 +16861,7 @@
         <v>0.000217828091994246</v>
       </c>
       <c r="I121" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.000217828091994246</v>
       </c>
       <c r="J121" t="s">
@@ -16979,8 +16877,7 @@
         <v>254</v>
       </c>
       <c r="T121">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="122" spans="6:20" ht="15">
@@ -16995,7 +16892,7 @@
         <v>0.00021494423184792799</v>
       </c>
       <c r="I122" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00021494423184792799</v>
       </c>
       <c r="J122" t="s">
@@ -17011,8 +16908,7 @@
         <v>254</v>
       </c>
       <c r="T122">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="123" spans="6:20" ht="15">
@@ -17027,7 +16923,7 @@
         <v>0.00031499640433377599</v>
       </c>
       <c r="I123" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00031499640433377599</v>
       </c>
       <c r="J123" t="s">
@@ -17043,8 +16939,7 @@
         <v>257</v>
       </c>
       <c r="T123">
-        <f>+SUMIF($S$7:$S$11,LEFT(R123,5)&amp;"*",$T$7:$T$11)</f>
-        <v>0.20000000000000001</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="124" spans="6:20" ht="15">
@@ -17059,7 +16954,7 @@
         <v>0.0025141244794864501</v>
       </c>
       <c r="I124" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0025141244794864501</v>
       </c>
       <c r="J124" t="s">
@@ -17075,8 +16970,7 @@
         <v>257</v>
       </c>
       <c r="T124">
-        <f>+SUMIF($S$7:$S$11,LEFT(R124,5)&amp;"*",$T$7:$T$11)</f>
-        <v>0.20000000000000001</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="125" spans="6:20" ht="15">
@@ -17091,7 +16985,7 @@
         <v>0.0017683153930356801</v>
       </c>
       <c r="I125" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0017683153930356801</v>
       </c>
       <c r="J125" t="s">
@@ -17107,8 +17001,7 @@
         <v>257</v>
       </c>
       <c r="T125">
-        <f t="shared" si="6" ref="T125:T136">+SUMIF($S$7:$S$11,LEFT(R125,5)&amp;"*",$T$7:$T$11)</f>
-        <v>0.20000000000000001</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="126" spans="6:20" ht="15">
@@ -17123,7 +17016,7 @@
         <v>0.00066867996369597798</v>
       </c>
       <c r="I126" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00066867996369597798</v>
       </c>
       <c r="J126" t="s">
@@ -17139,8 +17032,7 @@
         <v>257</v>
       </c>
       <c r="T126">
-        <f>+SUMIF($S$7:$S$11,LEFT(R126,5)&amp;"*",$T$7:$T$11)</f>
-        <v>0.20000000000000001</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="127" spans="6:20" ht="15">
@@ -17155,7 +17047,7 @@
         <v>0.00023643865503272099</v>
       </c>
       <c r="I127" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00023643865503272099</v>
       </c>
       <c r="J127" t="s">
@@ -17171,8 +17063,7 @@
         <v>257</v>
       </c>
       <c r="T127">
-        <f t="shared" si="6"/>
-        <v>0.29999999999999999</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="128" spans="6:20" ht="15">
@@ -17187,7 +17078,7 @@
         <v>0.0024058665241777598</v>
       </c>
       <c r="I128" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.0024058665241777598</v>
       </c>
       <c r="J128" t="s">
@@ -17203,8 +17094,7 @@
         <v>258</v>
       </c>
       <c r="T128">
-        <f>+SUMIF($S$7:$S$11,LEFT(R128,5)&amp;"*",$T$7:$T$11)</f>
-        <v>0.20000000000000001</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="129" spans="6:20" ht="15">
@@ -17219,7 +17109,7 @@
         <v>0.00426054151520409</v>
       </c>
       <c r="I129" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.00426054151520409</v>
       </c>
       <c r="J129" t="s">
@@ -17235,8 +17125,7 @@
         <v>258</v>
       </c>
       <c r="T129">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000001</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="130" spans="6:20" ht="15">
@@ -17248,11 +17137,11 @@
       </c>
       <c r="H130" s="44">
         <f>+H7*(1-T15)</f>
-        <v>0.000506142839224487</v>
+        <v>0.00040491427137958962</v>
       </c>
       <c r="I130" s="44">
-        <f t="shared" si="3"/>
-        <v>0.000506142839224487</v>
+        <f t="shared" si="1"/>
+        <v>0.00040491427137958962</v>
       </c>
       <c r="J130" s="43" t="s">
         <v>140</v>
@@ -17269,8 +17158,7 @@
         <v>258</v>
       </c>
       <c r="T130">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000001</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="131" spans="6:20" ht="15">
@@ -17281,12 +17169,12 @@
         <v>2050</v>
       </c>
       <c r="H131" s="44">
-        <f t="shared" si="7" ref="H131:H194">+H8*(1-T16)</f>
-        <v>0.00055272693120035003</v>
+        <f t="shared" si="2" ref="H131:H194">+H8*(1-T16)</f>
+        <v>0.00044218154496028007</v>
       </c>
       <c r="I131" s="44">
-        <f t="shared" si="3"/>
-        <v>0.00055272693120035003</v>
+        <f t="shared" si="1"/>
+        <v>0.00044218154496028007</v>
       </c>
       <c r="J131" s="43" t="s">
         <v>143</v>
@@ -17303,8 +17191,7 @@
         <v>258</v>
       </c>
       <c r="T131">
-        <f>+SUMIF($S$7:$S$11,LEFT(R131,5)&amp;"*",$T$7:$T$11)</f>
-        <v>0.20000000000000001</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="132" spans="6:20" ht="15">
@@ -17315,12 +17202,12 @@
         <v>2050</v>
       </c>
       <c r="H132" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00043315605376271002</v>
+        <f t="shared" si="2"/>
+        <v>0.00034652484301016804</v>
       </c>
       <c r="I132" s="44">
-        <f t="shared" si="3"/>
-        <v>0.00043315605376271002</v>
+        <f t="shared" si="1"/>
+        <v>0.00034652484301016804</v>
       </c>
       <c r="J132" s="43" t="s">
         <v>212</v>
@@ -17337,8 +17224,7 @@
         <v>258</v>
       </c>
       <c r="T132">
-        <f t="shared" si="6"/>
-        <v>0.29999999999999999</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="133" spans="6:20" ht="15">
@@ -17349,12 +17235,12 @@
         <v>2050</v>
       </c>
       <c r="H133" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0040244969239508098</v>
+        <f t="shared" si="2"/>
+        <v>0.0028171478467655668</v>
       </c>
       <c r="I133" s="44">
-        <f t="shared" si="3"/>
-        <v>0.0040244969239508098</v>
+        <f t="shared" si="1"/>
+        <v>0.0028171478467655668</v>
       </c>
       <c r="J133" s="43" t="s">
         <v>137</v>
@@ -17371,8 +17257,7 @@
         <v>259</v>
       </c>
       <c r="T133">
-        <f>+SUMIF($S$7:$S$11,LEFT(R133,5)&amp;"*",$T$7:$T$11)</f>
-        <v>0.20000000000000001</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="134" spans="6:20" ht="15">
@@ -17383,12 +17268,12 @@
         <v>2050</v>
       </c>
       <c r="H134" s="44">
-        <f t="shared" si="7"/>
-        <v>0.000683619325130715</v>
+        <f t="shared" si="2"/>
+        <v>0.000546895460104572</v>
       </c>
       <c r="I134" s="44">
-        <f t="shared" si="3"/>
-        <v>0.000683619325130715</v>
+        <f t="shared" si="1"/>
+        <v>0.000546895460104572</v>
       </c>
       <c r="J134" s="43" t="s">
         <v>140</v>
@@ -17405,8 +17290,7 @@
         <v>259</v>
       </c>
       <c r="T134">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000001</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="135" spans="6:20" ht="15">
@@ -17417,12 +17301,12 @@
         <v>2050</v>
       </c>
       <c r="H135" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00037301650664773602</v>
+        <f t="shared" si="2"/>
+        <v>0.00029841320531818886</v>
       </c>
       <c r="I135" s="44">
-        <f t="shared" si="3"/>
-        <v>0.00037301650664773602</v>
+        <f t="shared" si="1"/>
+        <v>0.00029841320531818886</v>
       </c>
       <c r="J135" s="43" t="s">
         <v>143</v>
@@ -17439,8 +17323,7 @@
         <v>259</v>
       </c>
       <c r="T135">
-        <f>+SUMIF($S$7:$S$11,LEFT(R135,5)&amp;"*",$T$7:$T$11)</f>
-        <v>0.20000000000000001</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="136" spans="6:20" ht="15">
@@ -17451,12 +17334,12 @@
         <v>2050</v>
       </c>
       <c r="H136" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0065085678239306501</v>
+        <f t="shared" si="2"/>
+        <v>0.0052068542591445204</v>
       </c>
       <c r="I136" s="44">
-        <f t="shared" si="8" ref="I136:I199">+H136</f>
-        <v>0.0065085678239306501</v>
+        <f t="shared" si="3" ref="I136:I199">+H136</f>
+        <v>0.0052068542591445204</v>
       </c>
       <c r="J136" s="43" t="s">
         <v>212</v>
@@ -17473,8 +17356,7 @@
         <v>259</v>
       </c>
       <c r="T136">
-        <f t="shared" si="6"/>
-        <v>0.20000000000000001</v>
+        <v>0.20</v>
       </c>
     </row>
     <row r="137" spans="6:20" ht="15">
@@ -17485,12 +17367,12 @@
         <v>2050</v>
       </c>
       <c r="H137" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0097445348238324302</v>
+        <f t="shared" si="2"/>
+        <v>0.0068211743766827008</v>
       </c>
       <c r="I137" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0097445348238324302</v>
+        <f t="shared" si="3"/>
+        <v>0.0068211743766827008</v>
       </c>
       <c r="J137" s="43" t="s">
         <v>137</v>
@@ -17507,8 +17389,7 @@
         <v>259</v>
       </c>
       <c r="T137">
-        <f>+SUMIF($S$7:$S$11,LEFT(R137,5)&amp;"*",$T$7:$T$11)</f>
-        <v>0.29999999999999999</v>
+        <v>0.30</v>
       </c>
     </row>
     <row r="138" spans="6:13" ht="15">
@@ -17519,12 +17400,12 @@
         <v>2050</v>
       </c>
       <c r="H138" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00075723595506168901</v>
+        <f t="shared" si="2"/>
+        <v>0.00060578876404935125</v>
       </c>
       <c r="I138" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00075723595506168901</v>
+        <f t="shared" si="3"/>
+        <v>0.00060578876404935125</v>
       </c>
       <c r="J138" s="43" t="s">
         <v>140</v>
@@ -17543,12 +17424,12 @@
         <v>2050</v>
       </c>
       <c r="H139" s="44">
-        <f t="shared" si="7"/>
-        <v>0.000343728252885419</v>
+        <f t="shared" si="2"/>
+        <v>0.00027498260230833521</v>
       </c>
       <c r="I139" s="44">
-        <f t="shared" si="8"/>
-        <v>0.000343728252885419</v>
+        <f t="shared" si="3"/>
+        <v>0.00027498260230833521</v>
       </c>
       <c r="J139" s="43" t="s">
         <v>143</v>
@@ -17567,12 +17448,12 @@
         <v>2050</v>
       </c>
       <c r="H140" s="44">
-        <f t="shared" si="7"/>
-        <v>0.011604149295966801</v>
+        <f t="shared" si="2"/>
+        <v>0.0092833194367734403</v>
       </c>
       <c r="I140" s="44">
-        <f t="shared" si="8"/>
-        <v>0.011604149295966801</v>
+        <f t="shared" si="3"/>
+        <v>0.0092833194367734403</v>
       </c>
       <c r="J140" s="43" t="s">
         <v>212</v>
@@ -17591,12 +17472,12 @@
         <v>2050</v>
       </c>
       <c r="H141" s="44">
-        <f t="shared" si="7"/>
-        <v>0.012331284039255199</v>
+        <f t="shared" si="2"/>
+        <v>0.0086318988274786384</v>
       </c>
       <c r="I141" s="44">
-        <f t="shared" si="8"/>
-        <v>0.012331284039255199</v>
+        <f t="shared" si="3"/>
+        <v>0.0086318988274786384</v>
       </c>
       <c r="J141" s="43" t="s">
         <v>137</v>
@@ -17615,12 +17496,12 @@
         <v>2050</v>
       </c>
       <c r="H142" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00075793685463835202</v>
+        <f t="shared" si="2"/>
+        <v>0.0006063494837106817</v>
       </c>
       <c r="I142" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00075793685463835202</v>
+        <f t="shared" si="3"/>
+        <v>0.0006063494837106817</v>
       </c>
       <c r="J142" s="43" t="s">
         <v>140</v>
@@ -17639,12 +17520,12 @@
         <v>2050</v>
       </c>
       <c r="H143" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00031842733929098998</v>
+        <f t="shared" si="2"/>
+        <v>0.00025474187143279198</v>
       </c>
       <c r="I143" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00031842733929098998</v>
+        <f t="shared" si="3"/>
+        <v>0.00025474187143279198</v>
       </c>
       <c r="J143" s="43" t="s">
         <v>143</v>
@@ -17663,12 +17544,12 @@
         <v>2050</v>
       </c>
       <c r="H144" s="44">
-        <f t="shared" si="7"/>
-        <v>0.015658923996909099</v>
+        <f t="shared" si="2"/>
+        <v>0.012527139197527279</v>
       </c>
       <c r="I144" s="44">
-        <f t="shared" si="8"/>
-        <v>0.015658923996909099</v>
+        <f t="shared" si="3"/>
+        <v>0.012527139197527279</v>
       </c>
       <c r="J144" s="43" t="s">
         <v>212</v>
@@ -17687,12 +17568,12 @@
         <v>2050</v>
       </c>
       <c r="H145" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0137580627391312</v>
+        <f t="shared" si="2"/>
+        <v>0.0096306439173918391</v>
       </c>
       <c r="I145" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0137580627391312</v>
+        <f t="shared" si="3"/>
+        <v>0.0096306439173918391</v>
       </c>
       <c r="J145" s="43" t="s">
         <v>137</v>
@@ -17711,12 +17592,12 @@
         <v>2050</v>
       </c>
       <c r="H146" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00070490984619025901</v>
+        <f t="shared" si="2"/>
+        <v>0.00056392787695220723</v>
       </c>
       <c r="I146" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00070490984619025901</v>
+        <f t="shared" si="3"/>
+        <v>0.00056392787695220723</v>
       </c>
       <c r="J146" s="43" t="s">
         <v>140</v>
@@ -17735,12 +17616,12 @@
         <v>2050</v>
       </c>
       <c r="H147" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00021330643979401999</v>
+        <f t="shared" si="2"/>
+        <v>0.00017064515183521601</v>
       </c>
       <c r="I147" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00021330643979401999</v>
+        <f t="shared" si="3"/>
+        <v>0.00017064515183521601</v>
       </c>
       <c r="J147" s="43" t="s">
         <v>143</v>
@@ -17759,12 +17640,12 @@
         <v>2050</v>
       </c>
       <c r="H148" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0113937015968713</v>
+        <f t="shared" si="2"/>
+        <v>0.0091149612774970405</v>
       </c>
       <c r="I148" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0113937015968713</v>
+        <f t="shared" si="3"/>
+        <v>0.0091149612774970405</v>
       </c>
       <c r="J148" s="43" t="s">
         <v>217</v>
@@ -17783,12 +17664,12 @@
         <v>2050</v>
       </c>
       <c r="H149" s="44">
-        <f t="shared" si="7"/>
-        <v>0.013665642356902799</v>
+        <f t="shared" si="2"/>
+        <v>0.0095659496498319598</v>
       </c>
       <c r="I149" s="44">
-        <f t="shared" si="8"/>
-        <v>0.013665642356902799</v>
+        <f t="shared" si="3"/>
+        <v>0.0095659496498319598</v>
       </c>
       <c r="J149" s="43" t="s">
         <v>137</v>
@@ -17807,12 +17688,12 @@
         <v>2050</v>
       </c>
       <c r="H150" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00063201440609990996</v>
+        <f t="shared" si="2"/>
+        <v>0.00050561152487992804</v>
       </c>
       <c r="I150" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00063201440609990996</v>
+        <f t="shared" si="3"/>
+        <v>0.00050561152487992804</v>
       </c>
       <c r="J150" s="43" t="s">
         <v>140</v>
@@ -17831,12 +17712,12 @@
         <v>2050</v>
       </c>
       <c r="H151" s="44">
-        <f t="shared" si="7"/>
-        <v>9.2802973696255701E-05</v>
+        <f t="shared" si="2"/>
+        <v>7.4242378957004569E-05</v>
       </c>
       <c r="I151" s="44">
-        <f t="shared" si="8"/>
-        <v>9.2802973696255701E-05</v>
+        <f t="shared" si="3"/>
+        <v>7.4242378957004569E-05</v>
       </c>
       <c r="J151" s="43" t="s">
         <v>143</v>
@@ -17855,12 +17736,12 @@
         <v>2050</v>
       </c>
       <c r="H152" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0124634538797252</v>
+        <f t="shared" si="2"/>
+        <v>0.0099707631037801604</v>
       </c>
       <c r="I152" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0124634538797252</v>
+        <f t="shared" si="3"/>
+        <v>0.0099707631037801604</v>
       </c>
       <c r="J152" s="43" t="s">
         <v>219</v>
@@ -17879,12 +17760,12 @@
         <v>2050</v>
       </c>
       <c r="H153" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0116206091575292</v>
+        <f t="shared" si="2"/>
+        <v>0.0081344264102704393</v>
       </c>
       <c r="I153" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0116206091575292</v>
+        <f t="shared" si="3"/>
+        <v>0.0081344264102704393</v>
       </c>
       <c r="J153" s="43" t="s">
         <v>137</v>
@@ -17903,12 +17784,12 @@
         <v>2050</v>
       </c>
       <c r="H154" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00058833522338227497</v>
+        <f t="shared" si="2"/>
+        <v>0.00047066817870581999</v>
       </c>
       <c r="I154" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00058833522338227497</v>
+        <f t="shared" si="3"/>
+        <v>0.00047066817870581999</v>
       </c>
       <c r="J154" s="43" t="s">
         <v>140</v>
@@ -17927,12 +17808,12 @@
         <v>2050</v>
       </c>
       <c r="H155" s="44">
-        <f t="shared" si="7"/>
-        <v>6.9127556176359E-05</v>
+        <f t="shared" si="2"/>
+        <v>5.5302044941087202E-05</v>
       </c>
       <c r="I155" s="44">
-        <f t="shared" si="8"/>
-        <v>6.9127556176359E-05</v>
+        <f t="shared" si="3"/>
+        <v>5.5302044941087202E-05</v>
       </c>
       <c r="J155" s="43" t="s">
         <v>143</v>
@@ -17951,12 +17832,12 @@
         <v>2050</v>
       </c>
       <c r="H156" s="44">
-        <f t="shared" si="7"/>
-        <v>0.016645048110215999</v>
+        <f t="shared" si="2"/>
+        <v>0.0133160384881728</v>
       </c>
       <c r="I156" s="44">
-        <f t="shared" si="8"/>
-        <v>0.016645048110215999</v>
+        <f t="shared" si="3"/>
+        <v>0.0133160384881728</v>
       </c>
       <c r="J156" s="43" t="s">
         <v>221</v>
@@ -17975,12 +17856,12 @@
         <v>2050</v>
       </c>
       <c r="H157" s="44">
-        <f t="shared" si="7"/>
-        <v>0.010940282504497099</v>
+        <f t="shared" si="2"/>
+        <v>0.0076581977531479687</v>
       </c>
       <c r="I157" s="44">
-        <f t="shared" si="8"/>
-        <v>0.010940282504497099</v>
+        <f t="shared" si="3"/>
+        <v>0.0076581977531479687</v>
       </c>
       <c r="J157" s="43" t="s">
         <v>137</v>
@@ -17999,12 +17880,12 @@
         <v>2050</v>
       </c>
       <c r="H158" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00055338501641265204</v>
+        <f t="shared" si="2"/>
+        <v>0.00044270801313012165</v>
       </c>
       <c r="I158" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00055338501641265204</v>
+        <f t="shared" si="3"/>
+        <v>0.00044270801313012165</v>
       </c>
       <c r="J158" s="43" t="s">
         <v>140</v>
@@ -18023,12 +17904,12 @@
         <v>2050</v>
       </c>
       <c r="H159" s="44">
-        <f t="shared" si="7"/>
-        <v>8.4873154087721598E-05</v>
+        <f t="shared" si="2"/>
+        <v>6.7898523270177276E-05</v>
       </c>
       <c r="I159" s="44">
-        <f t="shared" si="8"/>
-        <v>8.4873154087721598E-05</v>
+        <f t="shared" si="3"/>
+        <v>6.7898523270177276E-05</v>
       </c>
       <c r="J159" s="43" t="s">
         <v>143</v>
@@ -18047,12 +17928,12 @@
         <v>2050</v>
       </c>
       <c r="H160" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0226241477602659</v>
+        <f t="shared" si="2"/>
+        <v>0.018099318208212721</v>
       </c>
       <c r="I160" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0226241477602659</v>
+        <f t="shared" si="3"/>
+        <v>0.018099318208212721</v>
       </c>
       <c r="J160" s="43" t="s">
         <v>223</v>
@@ -18071,12 +17952,12 @@
         <v>2050</v>
       </c>
       <c r="H161" s="44">
-        <f t="shared" si="7"/>
-        <v>0.011080838801265799</v>
+        <f t="shared" si="2"/>
+        <v>0.0077565871608860594</v>
       </c>
       <c r="I161" s="44">
-        <f t="shared" si="8"/>
-        <v>0.011080838801265799</v>
+        <f t="shared" si="3"/>
+        <v>0.0077565871608860594</v>
       </c>
       <c r="J161" s="43" t="s">
         <v>137</v>
@@ -18095,12 +17976,12 @@
         <v>2050</v>
       </c>
       <c r="H162" s="44">
-        <f t="shared" si="7"/>
-        <v>0.000533896737113557</v>
+        <f t="shared" si="2"/>
+        <v>0.00042711738969084564</v>
       </c>
       <c r="I162" s="44">
-        <f t="shared" si="8"/>
-        <v>0.000533896737113557</v>
+        <f t="shared" si="3"/>
+        <v>0.00042711738969084564</v>
       </c>
       <c r="J162" s="43" t="s">
         <v>140</v>
@@ -18119,12 +18000,12 @@
         <v>2050</v>
       </c>
       <c r="H163" s="44">
-        <f t="shared" si="7"/>
-        <v>7.1426639989066005E-05</v>
+        <f t="shared" si="2"/>
+        <v>5.7141311991252807E-05</v>
       </c>
       <c r="I163" s="44">
-        <f t="shared" si="8"/>
-        <v>7.1426639989066005E-05</v>
+        <f t="shared" si="3"/>
+        <v>5.7141311991252807E-05</v>
       </c>
       <c r="J163" s="43" t="s">
         <v>143</v>
@@ -18143,12 +18024,12 @@
         <v>2050</v>
       </c>
       <c r="H164" s="44">
-        <f t="shared" si="7"/>
-        <v>0.027338413527361698</v>
+        <f t="shared" si="2"/>
+        <v>0.02187073082188936</v>
       </c>
       <c r="I164" s="44">
-        <f t="shared" si="8"/>
-        <v>0.027338413527361698</v>
+        <f t="shared" si="3"/>
+        <v>0.02187073082188936</v>
       </c>
       <c r="J164" s="43" t="s">
         <v>225</v>
@@ -18167,12 +18048,12 @@
         <v>2050</v>
       </c>
       <c r="H165" s="44">
-        <f t="shared" si="7"/>
-        <v>0.010581748102151799</v>
+        <f t="shared" si="2"/>
+        <v>0.0074072236715062587</v>
       </c>
       <c r="I165" s="44">
-        <f t="shared" si="8"/>
-        <v>0.010581748102151799</v>
+        <f t="shared" si="3"/>
+        <v>0.0074072236715062587</v>
       </c>
       <c r="J165" s="43" t="s">
         <v>137</v>
@@ -18191,12 +18072,12 @@
         <v>2050</v>
       </c>
       <c r="H166" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00074241698715176601</v>
+        <f t="shared" si="2"/>
+        <v>0.00059393358972141281</v>
       </c>
       <c r="I166" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00074241698715176601</v>
+        <f t="shared" si="3"/>
+        <v>0.00059393358972141281</v>
       </c>
       <c r="J166" s="43" t="s">
         <v>141</v>
@@ -18215,12 +18096,12 @@
         <v>2050</v>
       </c>
       <c r="H167" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00069732301417353205</v>
+        <f t="shared" si="2"/>
+        <v>0.00055785841133882568</v>
       </c>
       <c r="I167" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00069732301417353205</v>
+        <f t="shared" si="3"/>
+        <v>0.00055785841133882568</v>
       </c>
       <c r="J167" s="43" t="s">
         <v>144</v>
@@ -18239,12 +18120,12 @@
         <v>2050</v>
       </c>
       <c r="H168" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0016091636703289801</v>
+        <f t="shared" si="2"/>
+        <v>0.0012873309362631841</v>
       </c>
       <c r="I168" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0016091636703289801</v>
+        <f t="shared" si="3"/>
+        <v>0.0012873309362631841</v>
       </c>
       <c r="J168" s="43" t="s">
         <v>227</v>
@@ -18263,12 +18144,12 @@
         <v>2050</v>
       </c>
       <c r="H169" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0057786168730819196</v>
+        <f t="shared" si="2"/>
+        <v>0.0040450318111573437</v>
       </c>
       <c r="I169" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0057786168730819196</v>
+        <f t="shared" si="3"/>
+        <v>0.0040450318111573437</v>
       </c>
       <c r="J169" s="43" t="s">
         <v>138</v>
@@ -18287,12 +18168,12 @@
         <v>2050</v>
       </c>
       <c r="H170" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00077940560081569</v>
+        <f t="shared" si="2"/>
+        <v>0.00062352448065255202</v>
       </c>
       <c r="I170" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00077940560081569</v>
+        <f t="shared" si="3"/>
+        <v>0.00062352448065255202</v>
       </c>
       <c r="J170" s="43" t="s">
         <v>141</v>
@@ -18311,12 +18192,12 @@
         <v>2050</v>
       </c>
       <c r="H171" s="44">
-        <f t="shared" si="7"/>
-        <v>0.000426163933939329</v>
+        <f t="shared" si="2"/>
+        <v>0.00034093114715146321</v>
       </c>
       <c r="I171" s="44">
-        <f t="shared" si="8"/>
-        <v>0.000426163933939329</v>
+        <f t="shared" si="3"/>
+        <v>0.00034093114715146321</v>
       </c>
       <c r="J171" s="43" t="s">
         <v>144</v>
@@ -18335,12 +18216,12 @@
         <v>2050</v>
       </c>
       <c r="H172" s="44">
-        <f t="shared" si="7"/>
-        <v>0.012603603215973499</v>
+        <f t="shared" si="2"/>
+        <v>0.0100828825727788</v>
       </c>
       <c r="I172" s="44">
-        <f t="shared" si="8"/>
-        <v>0.012603603215973499</v>
+        <f t="shared" si="3"/>
+        <v>0.0100828825727788</v>
       </c>
       <c r="J172" s="43" t="s">
         <v>227</v>
@@ -18359,12 +18240,12 @@
         <v>2050</v>
       </c>
       <c r="H173" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0053948468322694201</v>
+        <f t="shared" si="2"/>
+        <v>0.0037763927825885937</v>
       </c>
       <c r="I173" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0053948468322694201</v>
+        <f t="shared" si="3"/>
+        <v>0.0037763927825885937</v>
       </c>
       <c r="J173" s="43" t="s">
         <v>138</v>
@@ -18383,12 +18264,12 @@
         <v>2050</v>
       </c>
       <c r="H174" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00093488148228942805</v>
+        <f t="shared" si="2"/>
+        <v>0.00074790518583154253</v>
       </c>
       <c r="I174" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00093488148228942805</v>
+        <f t="shared" si="3"/>
+        <v>0.00074790518583154253</v>
       </c>
       <c r="J174" s="43" t="s">
         <v>141</v>
@@ -18407,12 +18288,12 @@
         <v>2050</v>
       </c>
       <c r="H175" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00040670311858187198</v>
+        <f t="shared" si="2"/>
+        <v>0.00032536249486549759</v>
       </c>
       <c r="I175" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00040670311858187198</v>
+        <f t="shared" si="3"/>
+        <v>0.00032536249486549759</v>
       </c>
       <c r="J175" s="43" t="s">
         <v>144</v>
@@ -18431,12 +18312,12 @@
         <v>2050</v>
       </c>
       <c r="H176" s="44">
-        <f t="shared" si="7"/>
-        <v>0.019962815705499199</v>
+        <f t="shared" si="2"/>
+        <v>0.015970252564399361</v>
       </c>
       <c r="I176" s="44">
-        <f t="shared" si="8"/>
-        <v>0.019962815705499199</v>
+        <f t="shared" si="3"/>
+        <v>0.015970252564399361</v>
       </c>
       <c r="J176" s="43" t="s">
         <v>227</v>
@@ -18455,12 +18336,12 @@
         <v>2050</v>
       </c>
       <c r="H177" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0079920668210354106</v>
+        <f t="shared" si="2"/>
+        <v>0.0055944467747247872</v>
       </c>
       <c r="I177" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0079920668210354106</v>
+        <f t="shared" si="3"/>
+        <v>0.0055944467747247872</v>
       </c>
       <c r="J177" s="43" t="s">
         <v>138</v>
@@ -18479,12 +18360,12 @@
         <v>2050</v>
       </c>
       <c r="H178" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00095937840089950596</v>
+        <f t="shared" si="2"/>
+        <v>0.00076750272071960486</v>
       </c>
       <c r="I178" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00095937840089950596</v>
+        <f t="shared" si="3"/>
+        <v>0.00076750272071960486</v>
       </c>
       <c r="J178" s="43" t="s">
         <v>141</v>
@@ -18503,12 +18384,12 @@
         <v>2050</v>
       </c>
       <c r="H179" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00039745734872240202</v>
+        <f t="shared" si="2"/>
+        <v>0.00031796587897792161</v>
       </c>
       <c r="I179" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00039745734872240202</v>
+        <f t="shared" si="3"/>
+        <v>0.00031796587897792161</v>
       </c>
       <c r="J179" s="43" t="s">
         <v>144</v>
@@ -18527,12 +18408,12 @@
         <v>2050</v>
       </c>
       <c r="H180" s="44">
-        <f t="shared" si="7"/>
-        <v>0.023880087312967601</v>
+        <f t="shared" si="2"/>
+        <v>0.019104069850374081</v>
       </c>
       <c r="I180" s="44">
-        <f t="shared" si="8"/>
-        <v>0.023880087312967601</v>
+        <f t="shared" si="3"/>
+        <v>0.019104069850374081</v>
       </c>
       <c r="J180" s="43" t="s">
         <v>227</v>
@@ -18551,12 +18432,12 @@
         <v>2050</v>
       </c>
       <c r="H181" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0089012862565573808</v>
+        <f t="shared" si="2"/>
+        <v>0.0062309003795901659</v>
       </c>
       <c r="I181" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0089012862565573808</v>
+        <f t="shared" si="3"/>
+        <v>0.0062309003795901659</v>
       </c>
       <c r="J181" s="43" t="s">
         <v>138</v>
@@ -18575,12 +18456,12 @@
         <v>2050</v>
       </c>
       <c r="H182" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00094983104774723102</v>
+        <f t="shared" si="2"/>
+        <v>0.0007598648381977849</v>
       </c>
       <c r="I182" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00094983104774723102</v>
+        <f t="shared" si="3"/>
+        <v>0.0007598648381977849</v>
       </c>
       <c r="J182" s="43" t="s">
         <v>141</v>
@@ -18599,12 +18480,12 @@
         <v>2050</v>
       </c>
       <c r="H183" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00039487301870630399</v>
+        <f t="shared" si="2"/>
+        <v>0.00031589841496504323</v>
       </c>
       <c r="I183" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00039487301870630399</v>
+        <f t="shared" si="3"/>
+        <v>0.00031589841496504323</v>
       </c>
       <c r="J183" s="43" t="s">
         <v>144</v>
@@ -18623,12 +18504,12 @@
         <v>2050</v>
       </c>
       <c r="H184" s="44">
-        <f t="shared" si="7"/>
-        <v>0.020324283757671101</v>
+        <f t="shared" si="2"/>
+        <v>0.016259427006136883</v>
       </c>
       <c r="I184" s="44">
-        <f t="shared" si="8"/>
-        <v>0.020324283757671101</v>
+        <f t="shared" si="3"/>
+        <v>0.016259427006136883</v>
       </c>
       <c r="J184" s="43" t="s">
         <v>232</v>
@@ -18647,12 +18528,12 @@
         <v>2050</v>
       </c>
       <c r="H185" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0099971612245433501</v>
+        <f t="shared" si="2"/>
+        <v>0.0069980128571803446</v>
       </c>
       <c r="I185" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0099971612245433501</v>
+        <f t="shared" si="3"/>
+        <v>0.0069980128571803446</v>
       </c>
       <c r="J185" s="43" t="s">
         <v>138</v>
@@ -18671,12 +18552,12 @@
         <v>2050</v>
       </c>
       <c r="H186" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00092710745268607096</v>
+        <f t="shared" si="2"/>
+        <v>0.00074168596214885685</v>
       </c>
       <c r="I186" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00092710745268607096</v>
+        <f t="shared" si="3"/>
+        <v>0.00074168596214885685</v>
       </c>
       <c r="J186" s="43" t="s">
         <v>141</v>
@@ -18695,12 +18576,12 @@
         <v>2050</v>
       </c>
       <c r="H187" s="44">
-        <f t="shared" si="7"/>
-        <v>0.000368293949598222</v>
+        <f t="shared" si="2"/>
+        <v>0.00029463515967857761</v>
       </c>
       <c r="I187" s="44">
-        <f t="shared" si="8"/>
-        <v>0.000368293949598222</v>
+        <f t="shared" si="3"/>
+        <v>0.00029463515967857761</v>
       </c>
       <c r="J187" s="43" t="s">
         <v>144</v>
@@ -18719,12 +18600,12 @@
         <v>2050</v>
       </c>
       <c r="H188" s="44">
-        <f t="shared" si="7"/>
-        <v>0.028990562100458198</v>
+        <f t="shared" si="2"/>
+        <v>0.023192449680366559</v>
       </c>
       <c r="I188" s="44">
-        <f t="shared" si="8"/>
-        <v>0.028990562100458198</v>
+        <f t="shared" si="3"/>
+        <v>0.023192449680366559</v>
       </c>
       <c r="J188" s="43" t="s">
         <v>234</v>
@@ -18743,12 +18624,12 @@
         <v>2050</v>
       </c>
       <c r="H189" s="44">
-        <f t="shared" si="7"/>
-        <v>0.0106097605259381</v>
+        <f t="shared" si="2"/>
+        <v>0.0074268323681566696</v>
       </c>
       <c r="I189" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0106097605259381</v>
+        <f t="shared" si="3"/>
+        <v>0.0074268323681566696</v>
       </c>
       <c r="J189" s="43" t="s">
         <v>138</v>
@@ -18767,12 +18648,12 @@
         <v>2050</v>
       </c>
       <c r="H190" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00089871332337915601</v>
+        <f t="shared" si="2"/>
+        <v>0.00071897065870332483</v>
       </c>
       <c r="I190" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00089871332337915601</v>
+        <f t="shared" si="3"/>
+        <v>0.00071897065870332483</v>
       </c>
       <c r="J190" s="43" t="s">
         <v>141</v>
@@ -18791,12 +18672,12 @@
         <v>2050</v>
       </c>
       <c r="H191" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00033519631170326802</v>
+        <f t="shared" si="2"/>
+        <v>0.00026815704936261441</v>
       </c>
       <c r="I191" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00033519631170326802</v>
+        <f t="shared" si="3"/>
+        <v>0.00026815704936261441</v>
       </c>
       <c r="J191" s="43" t="s">
         <v>144</v>
@@ -18815,12 +18696,12 @@
         <v>2050</v>
       </c>
       <c r="H192" s="44">
-        <f t="shared" si="7"/>
-        <v>0.039529383884159101</v>
+        <f t="shared" si="2"/>
+        <v>0.031623507107327281</v>
       </c>
       <c r="I192" s="44">
-        <f t="shared" si="8"/>
-        <v>0.039529383884159101</v>
+        <f t="shared" si="3"/>
+        <v>0.031623507107327281</v>
       </c>
       <c r="J192" s="43" t="s">
         <v>236</v>
@@ -18839,12 +18720,12 @@
         <v>2050</v>
       </c>
       <c r="H193" s="44">
-        <f t="shared" si="7"/>
-        <v>0.011065162721274399</v>
+        <f t="shared" si="2"/>
+        <v>0.007745613904892079</v>
       </c>
       <c r="I193" s="44">
-        <f t="shared" si="8"/>
-        <v>0.011065162721274399</v>
+        <f t="shared" si="3"/>
+        <v>0.007745613904892079</v>
       </c>
       <c r="J193" s="43" t="s">
         <v>138</v>
@@ -18863,12 +18744,12 @@
         <v>2050</v>
       </c>
       <c r="H194" s="44">
-        <f t="shared" si="7"/>
-        <v>0.00089917332740457596</v>
+        <f t="shared" si="2"/>
+        <v>0.00071933866192366077</v>
       </c>
       <c r="I194" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00089917332740457596</v>
+        <f t="shared" si="3"/>
+        <v>0.00071933866192366077</v>
       </c>
       <c r="J194" s="43" t="s">
         <v>141</v>
@@ -18887,12 +18768,12 @@
         <v>2050</v>
       </c>
       <c r="H195" s="44">
-        <f t="shared" si="9" ref="H195:H252">+H72*(1-T80)</f>
-        <v>0.00033086537242422499</v>
+        <f t="shared" si="4" ref="H195:H252">+H72*(1-T80)</f>
+        <v>0.00026469229793938</v>
       </c>
       <c r="I195" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00033086537242422499</v>
+        <f t="shared" si="3"/>
+        <v>0.00026469229793938</v>
       </c>
       <c r="J195" s="43" t="s">
         <v>144</v>
@@ -18911,12 +18792,12 @@
         <v>2050</v>
       </c>
       <c r="H196" s="44">
-        <f t="shared" si="9"/>
-        <v>0.050493263338740102</v>
+        <f t="shared" si="4"/>
+        <v>0.040394610670992086</v>
       </c>
       <c r="I196" s="44">
-        <f t="shared" si="8"/>
-        <v>0.050493263338740102</v>
+        <f t="shared" si="3"/>
+        <v>0.040394610670992086</v>
       </c>
       <c r="J196" s="43" t="s">
         <v>238</v>
@@ -18935,12 +18816,12 @@
         <v>2050</v>
       </c>
       <c r="H197" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0114874610881934</v>
+        <f t="shared" si="4"/>
+        <v>0.0080412227617353785</v>
       </c>
       <c r="I197" s="44">
-        <f t="shared" si="8"/>
-        <v>0.0114874610881934</v>
+        <f t="shared" si="3"/>
+        <v>0.0080412227617353785</v>
       </c>
       <c r="J197" s="43" t="s">
         <v>138</v>
@@ -18959,12 +18840,12 @@
         <v>2050</v>
       </c>
       <c r="H198" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00087038647541608097</v>
+        <f t="shared" si="4"/>
+        <v>0.00069630918033286484</v>
       </c>
       <c r="I198" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00087038647541608097</v>
+        <f t="shared" si="3"/>
+        <v>0.00069630918033286484</v>
       </c>
       <c r="J198" s="43" t="s">
         <v>141</v>
@@ -18983,12 +18864,12 @@
         <v>2050</v>
       </c>
       <c r="H199" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00023534708508606299</v>
+        <f t="shared" si="4"/>
+        <v>0.00018827766806885039</v>
       </c>
       <c r="I199" s="44">
-        <f t="shared" si="8"/>
-        <v>0.00023534708508606299</v>
+        <f t="shared" si="3"/>
+        <v>0.00018827766806885039</v>
       </c>
       <c r="J199" s="43" t="s">
         <v>144</v>
@@ -19007,12 +18888,12 @@
         <v>2050</v>
       </c>
       <c r="H200" s="44">
-        <f t="shared" si="9"/>
-        <v>0.052195880415110002</v>
+        <f t="shared" si="4"/>
+        <v>0.041756704332088002</v>
       </c>
       <c r="I200" s="44">
-        <f t="shared" si="10" ref="I200:I252">+H200</f>
-        <v>0.052195880415110002</v>
+        <f t="shared" si="5" ref="I200:I252">+H200</f>
+        <v>0.041756704332088002</v>
       </c>
       <c r="J200" s="43" t="s">
         <v>240</v>
@@ -19031,12 +18912,12 @@
         <v>2050</v>
       </c>
       <c r="H201" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0104359658232331</v>
+        <f t="shared" si="4"/>
+        <v>0.0073051760762631694</v>
       </c>
       <c r="I201" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0104359658232331</v>
+        <f t="shared" si="5"/>
+        <v>0.0073051760762631694</v>
       </c>
       <c r="J201" s="43" t="s">
         <v>138</v>
@@ -19055,12 +18936,12 @@
         <v>2050</v>
       </c>
       <c r="H202" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00084666683429302902</v>
+        <f t="shared" si="4"/>
+        <v>0.00067733346743442321</v>
       </c>
       <c r="I202" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00084666683429302902</v>
+        <f t="shared" si="5"/>
+        <v>0.00067733346743442321</v>
       </c>
       <c r="J202" s="43" t="s">
         <v>142</v>
@@ -19079,12 +18960,12 @@
         <v>2050</v>
       </c>
       <c r="H203" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00066867996369597798</v>
+        <f t="shared" si="4"/>
+        <v>0.00053494397095678239</v>
       </c>
       <c r="I203" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00066867996369597798</v>
+        <f t="shared" si="5"/>
+        <v>0.00053494397095678239</v>
       </c>
       <c r="J203" s="43" t="s">
         <v>145</v>
@@ -19103,12 +18984,12 @@
         <v>2050</v>
       </c>
       <c r="H204" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0024058665241777598</v>
+        <f t="shared" si="4"/>
+        <v>0.0019246932193422079</v>
       </c>
       <c r="I204" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0024058665241777598</v>
+        <f t="shared" si="5"/>
+        <v>0.0019246932193422079</v>
       </c>
       <c r="J204" s="43" t="s">
         <v>242</v>
@@ -19127,12 +19008,12 @@
         <v>2050</v>
       </c>
       <c r="H205" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00426054151520409</v>
+        <f t="shared" si="4"/>
+        <v>0.002982379060642863</v>
       </c>
       <c r="I205" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00426054151520409</v>
+        <f t="shared" si="5"/>
+        <v>0.002982379060642863</v>
       </c>
       <c r="J205" s="43" t="s">
         <v>139</v>
@@ -19151,12 +19032,12 @@
         <v>2050</v>
       </c>
       <c r="H206" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0017683153930356801</v>
+        <f t="shared" si="4"/>
+        <v>0.0014146523144285441</v>
       </c>
       <c r="I206" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0017683153930356801</v>
+        <f t="shared" si="5"/>
+        <v>0.0014146523144285441</v>
       </c>
       <c r="J206" s="43" t="s">
         <v>142</v>
@@ -19175,12 +19056,12 @@
         <v>2050</v>
       </c>
       <c r="H207" s="44">
-        <f t="shared" si="9"/>
-        <v>0.000750537163695459</v>
+        <f t="shared" si="4"/>
+        <v>0.00060042973095636725</v>
       </c>
       <c r="I207" s="44">
-        <f t="shared" si="10"/>
-        <v>0.000750537163695459</v>
+        <f t="shared" si="5"/>
+        <v>0.00060042973095636725</v>
       </c>
       <c r="J207" s="43" t="s">
         <v>145</v>
@@ -19199,12 +19080,12 @@
         <v>2050</v>
       </c>
       <c r="H208" s="44">
-        <f t="shared" si="9"/>
-        <v>0.020717034161966401</v>
+        <f t="shared" si="4"/>
+        <v>0.016573627329573123</v>
       </c>
       <c r="I208" s="44">
-        <f t="shared" si="10"/>
-        <v>0.020717034161966401</v>
+        <f t="shared" si="5"/>
+        <v>0.016573627329573123</v>
       </c>
       <c r="J208" s="43" t="s">
         <v>242</v>
@@ -19223,12 +19104,12 @@
         <v>2050</v>
       </c>
       <c r="H209" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0088922350864476096</v>
+        <f t="shared" si="4"/>
+        <v>0.006224564560513326</v>
       </c>
       <c r="I209" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0088922350864476096</v>
+        <f t="shared" si="5"/>
+        <v>0.006224564560513326</v>
       </c>
       <c r="J209" s="43" t="s">
         <v>139</v>
@@ -19247,12 +19128,12 @@
         <v>2050</v>
       </c>
       <c r="H210" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0020047682124008999</v>
+        <f t="shared" si="4"/>
+        <v>0.0016038145699207201</v>
       </c>
       <c r="I210" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0020047682124008999</v>
+        <f t="shared" si="5"/>
+        <v>0.0016038145699207201</v>
       </c>
       <c r="J210" s="43" t="s">
         <v>142</v>
@@ -19271,12 +19152,12 @@
         <v>2050</v>
       </c>
       <c r="H211" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00059115484277808797</v>
+        <f t="shared" si="4"/>
+        <v>0.00047292387422247039</v>
       </c>
       <c r="I211" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00059115484277808797</v>
+        <f t="shared" si="5"/>
+        <v>0.00047292387422247039</v>
       </c>
       <c r="J211" s="43" t="s">
         <v>145</v>
@@ -19295,12 +19176,12 @@
         <v>2050</v>
       </c>
       <c r="H212" s="44">
-        <f t="shared" si="9"/>
-        <v>0.033083652738783199</v>
+        <f t="shared" si="4"/>
+        <v>0.02646692219102656</v>
       </c>
       <c r="I212" s="44">
-        <f t="shared" si="10"/>
-        <v>0.033083652738783199</v>
+        <f t="shared" si="5"/>
+        <v>0.02646692219102656</v>
       </c>
       <c r="J212" s="43" t="s">
         <v>242</v>
@@ -19319,12 +19200,12 @@
         <v>2050</v>
       </c>
       <c r="H213" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0117236462517728</v>
+        <f t="shared" si="4"/>
+        <v>0.0082065523762409592</v>
       </c>
       <c r="I213" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0117236462517728</v>
+        <f t="shared" si="5"/>
+        <v>0.0082065523762409592</v>
       </c>
       <c r="J213" s="43" t="s">
         <v>139</v>
@@ -19343,12 +19224,12 @@
         <v>2050</v>
       </c>
       <c r="H214" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00196179164560536</v>
+        <f t="shared" si="4"/>
+        <v>0.0015694333164842881</v>
       </c>
       <c r="I214" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00196179164560536</v>
+        <f t="shared" si="5"/>
+        <v>0.0015694333164842881</v>
       </c>
       <c r="J214" s="43" t="s">
         <v>142</v>
@@ -19367,12 +19248,12 @@
         <v>2050</v>
       </c>
       <c r="H215" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00051352659953481301</v>
+        <f t="shared" si="4"/>
+        <v>0.0004108212796278504</v>
       </c>
       <c r="I215" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00051352659953481301</v>
+        <f t="shared" si="5"/>
+        <v>0.0004108212796278504</v>
       </c>
       <c r="J215" s="43" t="s">
         <v>145</v>
@@ -19391,12 +19272,12 @@
         <v>2050</v>
       </c>
       <c r="H216" s="44">
-        <f t="shared" si="9"/>
-        <v>0.038234291164306301</v>
+        <f t="shared" si="4"/>
+        <v>0.030587432931445044</v>
       </c>
       <c r="I216" s="44">
-        <f t="shared" si="10"/>
-        <v>0.038234291164306301</v>
+        <f t="shared" si="5"/>
+        <v>0.030587432931445044</v>
       </c>
       <c r="J216" s="43" t="s">
         <v>242</v>
@@ -19415,12 +19296,12 @@
         <v>2050</v>
       </c>
       <c r="H217" s="44">
-        <f t="shared" si="9"/>
-        <v>0.013255956176612699</v>
+        <f t="shared" si="4"/>
+        <v>0.0092791693236288896</v>
       </c>
       <c r="I217" s="44">
-        <f t="shared" si="10"/>
-        <v>0.013255956176612699</v>
+        <f t="shared" si="5"/>
+        <v>0.0092791693236288896</v>
       </c>
       <c r="J217" s="43" t="s">
         <v>139</v>
@@ -19439,12 +19320,12 @@
         <v>2050</v>
       </c>
       <c r="H218" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0017035279711745399</v>
+        <f t="shared" si="4"/>
+        <v>0.0013628223769396319</v>
       </c>
       <c r="I218" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0017035279711745399</v>
+        <f t="shared" si="5"/>
+        <v>0.0013628223769396319</v>
       </c>
       <c r="J218" s="43" t="s">
         <v>142</v>
@@ -19463,12 +19344,12 @@
         <v>2050</v>
       </c>
       <c r="H219" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00047564031426238499</v>
+        <f t="shared" si="4"/>
+        <v>0.00038051225140990803</v>
       </c>
       <c r="I219" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00047564031426238499</v>
+        <f t="shared" si="5"/>
+        <v>0.00038051225140990803</v>
       </c>
       <c r="J219" s="43" t="s">
         <v>145</v>
@@ -19487,12 +19368,12 @@
         <v>2050</v>
       </c>
       <c r="H220" s="44">
-        <f t="shared" si="9"/>
-        <v>0.043300799885821702</v>
+        <f t="shared" si="4"/>
+        <v>0.034640639908657365</v>
       </c>
       <c r="I220" s="44">
-        <f t="shared" si="10"/>
-        <v>0.043300799885821702</v>
+        <f t="shared" si="5"/>
+        <v>0.034640639908657365</v>
       </c>
       <c r="J220" s="43" t="s">
         <v>247</v>
@@ -19511,12 +19392,12 @@
         <v>2050</v>
       </c>
       <c r="H221" s="44">
-        <f t="shared" si="9"/>
-        <v>0.014139525083172099</v>
+        <f t="shared" si="4"/>
+        <v>0.0098976675582204687</v>
       </c>
       <c r="I221" s="44">
-        <f t="shared" si="10"/>
-        <v>0.014139525083172099</v>
+        <f t="shared" si="5"/>
+        <v>0.0098976675582204687</v>
       </c>
       <c r="J221" s="43" t="s">
         <v>139</v>
@@ -19535,12 +19416,12 @@
         <v>2050</v>
       </c>
       <c r="H222" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00139319820124895</v>
+        <f t="shared" si="4"/>
+        <v>0.00111455856099916</v>
       </c>
       <c r="I222" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00139319820124895</v>
+        <f t="shared" si="5"/>
+        <v>0.00111455856099916</v>
       </c>
       <c r="J222" s="43" t="s">
         <v>142</v>
@@ -19559,12 +19440,12 @@
         <v>2050</v>
       </c>
       <c r="H223" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00046204216750972199</v>
+        <f t="shared" si="4"/>
+        <v>0.00036963373400777759</v>
       </c>
       <c r="I223" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00046204216750972199</v>
+        <f t="shared" si="5"/>
+        <v>0.00036963373400777759</v>
       </c>
       <c r="J223" s="43" t="s">
         <v>145</v>
@@ -19583,12 +19464,12 @@
         <v>2050</v>
       </c>
       <c r="H224" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0489015983401654</v>
+        <f t="shared" si="4"/>
+        <v>0.039121278672132324</v>
       </c>
       <c r="I224" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0489015983401654</v>
+        <f t="shared" si="5"/>
+        <v>0.039121278672132324</v>
       </c>
       <c r="J224" s="43" t="s">
         <v>249</v>
@@ -19607,12 +19488,12 @@
         <v>2050</v>
       </c>
       <c r="H225" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0143038292745449</v>
+        <f t="shared" si="4"/>
+        <v>0.010012680492181429</v>
       </c>
       <c r="I225" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0143038292745449</v>
+        <f t="shared" si="5"/>
+        <v>0.010012680492181429</v>
       </c>
       <c r="J225" s="43" t="s">
         <v>139</v>
@@ -19631,12 +19512,12 @@
         <v>2050</v>
       </c>
       <c r="H226" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0012866536750593201</v>
+        <f t="shared" si="4"/>
+        <v>0.0010293229400474562</v>
       </c>
       <c r="I226" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0012866536750593201</v>
+        <f t="shared" si="5"/>
+        <v>0.0010293229400474562</v>
       </c>
       <c r="J226" s="43" t="s">
         <v>142</v>
@@ -19655,12 +19536,12 @@
         <v>2050</v>
       </c>
       <c r="H227" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00043173964300815897</v>
+        <f t="shared" si="4"/>
+        <v>0.00034539171440652722</v>
       </c>
       <c r="I227" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00043173964300815897</v>
+        <f t="shared" si="5"/>
+        <v>0.00034539171440652722</v>
       </c>
       <c r="J227" s="43" t="s">
         <v>145</v>
@@ -19679,12 +19560,12 @@
         <v>2050</v>
       </c>
       <c r="H228" s="44">
-        <f t="shared" si="9"/>
-        <v>0.060316400230437502</v>
+        <f t="shared" si="4"/>
+        <v>0.048253120184350004</v>
       </c>
       <c r="I228" s="44">
-        <f t="shared" si="10"/>
-        <v>0.060316400230437502</v>
+        <f t="shared" si="5"/>
+        <v>0.048253120184350004</v>
       </c>
       <c r="J228" s="43" t="s">
         <v>251</v>
@@ -19703,12 +19584,12 @@
         <v>2050</v>
       </c>
       <c r="H229" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0143517332094984</v>
+        <f t="shared" si="4"/>
+        <v>0.010046213246648878</v>
       </c>
       <c r="I229" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0143517332094984</v>
+        <f t="shared" si="5"/>
+        <v>0.010046213246648878</v>
       </c>
       <c r="J229" s="43" t="s">
         <v>139</v>
@@ -19727,12 +19608,12 @@
         <v>2050</v>
       </c>
       <c r="H230" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0012249928868643301</v>
+        <f t="shared" si="4"/>
+        <v>0.00097999430949146401</v>
       </c>
       <c r="I230" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0012249928868643301</v>
+        <f t="shared" si="5"/>
+        <v>0.00097999430949146401</v>
       </c>
       <c r="J230" s="43" t="s">
         <v>142</v>
@@ -19751,12 +19632,12 @@
         <v>2050</v>
       </c>
       <c r="H231" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00041119730191954202</v>
+        <f t="shared" si="4"/>
+        <v>0.00032895784153563366</v>
       </c>
       <c r="I231" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00041119730191954202</v>
+        <f t="shared" si="5"/>
+        <v>0.00032895784153563366</v>
       </c>
       <c r="J231" s="43" t="s">
         <v>145</v>
@@ -19775,12 +19656,12 @@
         <v>2050</v>
       </c>
       <c r="H232" s="44">
-        <f t="shared" si="9"/>
-        <v>0.072534210143308797</v>
+        <f t="shared" si="4"/>
+        <v>0.058027368114647038</v>
       </c>
       <c r="I232" s="44">
-        <f t="shared" si="10"/>
-        <v>0.072534210143308797</v>
+        <f t="shared" si="5"/>
+        <v>0.058027368114647038</v>
       </c>
       <c r="J232" s="43" t="s">
         <v>253</v>
@@ -19799,12 +19680,12 @@
         <v>2050</v>
       </c>
       <c r="H233" s="44">
-        <f t="shared" si="9"/>
-        <v>0.0144314490951484</v>
+        <f t="shared" si="4"/>
+        <v>0.01010201436660388</v>
       </c>
       <c r="I233" s="44">
-        <f t="shared" si="10"/>
-        <v>0.0144314490951484</v>
+        <f t="shared" si="5"/>
+        <v>0.01010201436660388</v>
       </c>
       <c r="J233" s="43" t="s">
         <v>139</v>
@@ -19823,12 +19704,12 @@
         <v>2050</v>
       </c>
       <c r="H234" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00108148631148779</v>
+        <f t="shared" si="4"/>
+        <v>0.00086518904919023201</v>
       </c>
       <c r="I234" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00108148631148779</v>
+        <f t="shared" si="5"/>
+        <v>0.00086518904919023201</v>
       </c>
       <c r="J234" s="43" t="s">
         <v>142</v>
@@ -19847,12 +19728,12 @@
         <v>2050</v>
       </c>
       <c r="H235" s="44">
-        <f t="shared" si="9"/>
-        <v>0.00030143313414422002</v>
+        <f t="shared" si="4"/>
+        <v>0.00024114650731537604</v>
       </c>
       <c r="I235" s="44">
-        <f t="shared" si="10"/>
-        <v>0.00030143313414422002</v>
+        <f t="shared" si="5"/>
+        <v>0.00024114650731537604</v>
       </c>
       <c r="J235" s="43" t="s">
         <v>145</v>
@@ -19871,12 +19752,12 @@
         <v>2050</v>
       </c>
       <c r="H236" s="44">
-        <f t="shared" si="9"/>
-        <v>0.095721007741370198</v>
+        <f t="shared" si="4"/>
+        <v>0.076576806193096161</v>
       </c>
       <c r="I236" s="44">
-        <f t="shared" si="10"/>
-        <v>0.095721007741370198</v>
+        <f t="shared" si="5"/>
+        <v>0.076576806193096161</v>
       </c>
       <c r="J236" s="43" t="s">
         <v>255</v>
@@ -19895,12 +19776,12 @@
         <v>2050</v>
       </c>
       <c r="H237" s="44">
-        <f t="shared" si="9"/>
-        <v>0.013140678240923199</v>
+        <f t="shared" si="4"/>
+        <v>0.0091984747686462386</v>
       </c>
       <c r="I237" s="44">
-        <f t="shared" si="10"/>
-        <v>0.013140678240923199</v>
+        <f t="shared" si="5"/>
+        <v>0.0091984747686462386</v>
       </c>
       <c r="J237" s="43" t="s">
         <v>139</v>
@@ -19919,11 +19800,11 @@
         <v>2050</v>
       </c>
       <c r="H238" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.00026004696136061763</v>
       </c>
       <c r="I238" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.00026004696136061763</v>
       </c>
       <c r="J238" s="43" t="s">
@@ -19943,11 +19824,11 @@
         <v>2050</v>
       </c>
       <c r="H239" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.00019713297929808483</v>
       </c>
       <c r="I239" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.00019713297929808483</v>
       </c>
       <c r="J239" s="43" t="s">
@@ -19967,11 +19848,11 @@
         <v>2050</v>
       </c>
       <c r="H240" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.00015475984693050801</v>
       </c>
       <c r="I240" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.00015475984693050801</v>
       </c>
       <c r="J240" s="43" t="s">
@@ -19991,11 +19872,11 @@
         <v>2050</v>
       </c>
       <c r="H241" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.00010599210862708401</v>
       </c>
       <c r="I241" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.00010599210862708401</v>
       </c>
       <c r="J241" s="43" t="s">
@@ -20015,11 +19896,11 @@
         <v>2050</v>
       </c>
       <c r="H242" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.0018895343615767707</v>
       </c>
       <c r="I242" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.0018895343615767707</v>
       </c>
       <c r="J242" s="43" t="s">
@@ -20039,11 +19920,11 @@
         <v>2050</v>
       </c>
       <c r="H243" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.0002447727400042208</v>
       </c>
       <c r="I243" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.0002447727400042208</v>
       </c>
       <c r="J243" s="43" t="s">
@@ -20063,11 +19944,11 @@
         <v>2050</v>
       </c>
       <c r="H244" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.00017426247359539682</v>
       </c>
       <c r="I244" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.00017426247359539682</v>
       </c>
       <c r="J244" s="43" t="s">
@@ -20087,11 +19968,11 @@
         <v>2050</v>
       </c>
       <c r="H245" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.00017195538547834239</v>
       </c>
       <c r="I245" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.00017195538547834239</v>
       </c>
       <c r="J245" s="43" t="s">
@@ -20111,11 +19992,11 @@
         <v>2050</v>
       </c>
       <c r="H246" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.00025199712346702079</v>
       </c>
       <c r="I246" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.00025199712346702079</v>
       </c>
       <c r="J246" s="43" t="s">
@@ -20135,11 +20016,11 @@
         <v>2050</v>
       </c>
       <c r="H247" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.001759887135640515</v>
       </c>
       <c r="I247" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.001759887135640515</v>
       </c>
       <c r="J247" s="43" t="s">
@@ -20159,11 +20040,11 @@
         <v>2050</v>
       </c>
       <c r="H248" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.0014146523144285441</v>
       </c>
       <c r="I248" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.0014146523144285441</v>
       </c>
       <c r="J248" s="43" t="s">
@@ -20183,11 +20064,11 @@
         <v>2050</v>
       </c>
       <c r="H249" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.00053494397095678239</v>
       </c>
       <c r="I249" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.00053494397095678239</v>
       </c>
       <c r="J249" s="43" t="s">
@@ -20207,11 +20088,11 @@
         <v>2050</v>
       </c>
       <c r="H250" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.0001891509240261768</v>
       </c>
       <c r="I250" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.0001891509240261768</v>
       </c>
       <c r="J250" s="43" t="s">
@@ -20231,11 +20112,11 @@
         <v>2050</v>
       </c>
       <c r="H251" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.0019246932193422079</v>
       </c>
       <c r="I251" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.0019246932193422079</v>
       </c>
       <c r="J251" s="43" t="s">
@@ -20255,11 +20136,11 @@
         <v>2050</v>
       </c>
       <c r="H252" s="44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.002982379060642863</v>
       </c>
       <c r="I252" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.002982379060642863</v>
       </c>
       <c r="J252" s="43" t="s">
